--- a/data/trans_orig/DCD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>5509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1957</v>
+        <v>2184</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12106</v>
+        <v>12410</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0121303874745132</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004309391427048373</v>
+        <v>0.004808883785934633</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02665642146959936</v>
+        <v>0.02732588254215065</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -764,19 +764,19 @@
         <v>20716</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12995</v>
+        <v>13230</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30550</v>
+        <v>31424</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04815047541606648</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03020365823691227</v>
+        <v>0.03075020113085779</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07100754275649745</v>
+        <v>0.07303942528114893</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -785,19 +785,19 @@
         <v>26225</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17413</v>
+        <v>17273</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38451</v>
+        <v>38755</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02965338238052619</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01968962123546352</v>
+        <v>0.01953082868181431</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04347867803087518</v>
+        <v>0.04382202488742844</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>448637</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442040</v>
+        <v>441736</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>452189</v>
+        <v>451962</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9878696125254868</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9733435785304008</v>
+        <v>0.9726741174578489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9956906085729517</v>
+        <v>0.9951911162140653</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -835,19 +835,19 @@
         <v>409514</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>399680</v>
+        <v>398806</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>417235</v>
+        <v>417000</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9518495245839336</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.928992457243502</v>
+        <v>0.9269605747188514</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9697963417630877</v>
+        <v>0.9692497988691423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>842</v>
@@ -856,19 +856,19 @@
         <v>858151</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>845925</v>
+        <v>845621</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>866963</v>
+        <v>867103</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9703466176194738</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9565213219691246</v>
+        <v>0.9561779751125713</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9803103787645364</v>
+        <v>0.9804691713181857</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>18698</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11001</v>
+        <v>11167</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28332</v>
+        <v>29609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02721325800315358</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01601103985213016</v>
+        <v>0.01625298590872956</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04123498058481319</v>
+        <v>0.04309330962580905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -981,19 +981,19 @@
         <v>41271</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28683</v>
+        <v>28934</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54684</v>
+        <v>55890</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0676297133450523</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0470022018154339</v>
+        <v>0.0474125192656453</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08960795846631139</v>
+        <v>0.09158533513693255</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -1002,19 +1002,19 @@
         <v>59969</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46741</v>
+        <v>45888</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77012</v>
+        <v>79598</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04622470752504359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03602824744197367</v>
+        <v>0.03537078978662889</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05936155872424415</v>
+        <v>0.0613546275008156</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>668389</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>658755</v>
+        <v>657478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>676086</v>
+        <v>675920</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9727867419968464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9587650194151869</v>
+        <v>0.9569066903741908</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9839889601478699</v>
+        <v>0.9837470140912704</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>533</v>
@@ -1052,19 +1052,19 @@
         <v>568984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>555571</v>
+        <v>554365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>581572</v>
+        <v>581321</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9323702866549477</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9103920415336887</v>
+        <v>0.9084146648630677</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9529977981845662</v>
+        <v>0.9525874807343548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1182</v>
@@ -1073,19 +1073,19 @@
         <v>1237373</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1220330</v>
+        <v>1217744</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1250601</v>
+        <v>1251454</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9537752924749564</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9406384412757562</v>
+        <v>0.9386453724991844</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9639717525580264</v>
+        <v>0.9646292102133712</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>29160</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20477</v>
+        <v>20161</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43097</v>
+        <v>42020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04276553919039886</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03003094707430527</v>
+        <v>0.02956777814249734</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06320475701889462</v>
+        <v>0.06162500473140907</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -1198,19 +1198,19 @@
         <v>83566</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67635</v>
+        <v>68313</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106602</v>
+        <v>102744</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1175576403406314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09514649509613299</v>
+        <v>0.09610086176193648</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1499647760032444</v>
+        <v>0.1445369608849528</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -1219,19 +1219,19 @@
         <v>112726</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91290</v>
+        <v>92259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134155</v>
+        <v>134996</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08093992652548372</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06554855505150048</v>
+        <v>0.06624392469801292</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09632639687632719</v>
+        <v>0.09693013808098463</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>652703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>638766</v>
+        <v>639843</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>661386</v>
+        <v>661702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9572344608096012</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9367952429811055</v>
+        <v>0.9383749952685909</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9699690529256947</v>
+        <v>0.9704322218575027</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>588</v>
@@ -1269,19 +1269,19 @@
         <v>627284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>604248</v>
+        <v>608106</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>643215</v>
+        <v>642537</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8824423596593686</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8500352239967558</v>
+        <v>0.8554630391150471</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9048535049038671</v>
+        <v>0.9038991382380632</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1211</v>
@@ -1290,19 +1290,19 @@
         <v>1279986</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1258557</v>
+        <v>1257716</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1301422</v>
+        <v>1300453</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9190600734745162</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9036736031236727</v>
+        <v>0.9030698619190154</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9344514449484994</v>
+        <v>0.9337560753019871</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>40662</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29568</v>
+        <v>28652</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55824</v>
+        <v>55378</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06615892983920883</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04810844197482995</v>
+        <v>0.04661783347508671</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09082700393330034</v>
+        <v>0.09010238181149499</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -1415,19 +1415,19 @@
         <v>89128</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72397</v>
+        <v>70907</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107962</v>
+        <v>108288</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1446421598517949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1174888576932998</v>
+        <v>0.1150709755223108</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.175206837756465</v>
+        <v>0.1757361124473883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -1436,19 +1436,19 @@
         <v>129791</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105879</v>
+        <v>105061</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>151719</v>
+        <v>151664</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1054509965478114</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08602325253093493</v>
+        <v>0.08535851731873144</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1232672189320883</v>
+        <v>0.1232224211453749</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>573955</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>558793</v>
+        <v>559239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>585049</v>
+        <v>585965</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9338410701607912</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9091729960666995</v>
+        <v>0.909897618188505</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.95189155802517</v>
+        <v>0.9533821665249133</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>459</v>
@@ -1486,19 +1486,19 @@
         <v>527071</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>508237</v>
+        <v>507911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>543802</v>
+        <v>545292</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.855357840148205</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8247931622435352</v>
+        <v>0.8242638875526118</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8825111423067002</v>
+        <v>0.8849290244776893</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>970</v>
@@ -1507,19 +1507,19 @@
         <v>1101025</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1079097</v>
+        <v>1079152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1124937</v>
+        <v>1125755</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8945490034521886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8767327810679116</v>
+        <v>0.876777578854625</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9139767474690649</v>
+        <v>0.9146414826812685</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>37310</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27614</v>
+        <v>27615</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50113</v>
+        <v>50714</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08688363921054115</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06430377126249713</v>
+        <v>0.06430546735632393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1166972626658522</v>
+        <v>0.1180971486774361</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -1632,19 +1632,19 @@
         <v>95792</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>79858</v>
+        <v>78372</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113778</v>
+        <v>116293</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2139158316147022</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1783347803924411</v>
+        <v>0.1750151930462948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2540819965987128</v>
+        <v>0.2596983639118824</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>124</v>
@@ -1653,19 +1653,19 @@
         <v>133102</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>111767</v>
+        <v>112446</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>156196</v>
+        <v>154504</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1517298827641701</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1274092530067847</v>
+        <v>0.1281829942683674</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1780559296991944</v>
+        <v>0.1761277815026679</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>392119</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>379316</v>
+        <v>378715</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>401815</v>
+        <v>401814</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9131163607894589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.883302737334147</v>
+        <v>0.8819028513225641</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9356962287375025</v>
+        <v>0.9356945326436761</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>318</v>
@@ -1703,19 +1703,19 @@
         <v>352008</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>334022</v>
+        <v>331507</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>367942</v>
+        <v>369428</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7860841683852978</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7459180034012871</v>
+        <v>0.7403016360881176</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8216652196075589</v>
+        <v>0.8249848069537052</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>675</v>
@@ -1724,19 +1724,19 @@
         <v>744127</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>721033</v>
+        <v>722725</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>765462</v>
+        <v>764783</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8482701172358299</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8219440703008055</v>
+        <v>0.8238722184973322</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8725907469932151</v>
+        <v>0.8718170057316327</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>46531</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34111</v>
+        <v>34615</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60822</v>
+        <v>60540</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1502039336665636</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1101121783347562</v>
+        <v>0.1117385564875144</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1963366545327623</v>
+        <v>0.1954249615275205</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>96</v>
@@ -1849,19 +1849,19 @@
         <v>99865</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>83641</v>
+        <v>82926</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117660</v>
+        <v>116857</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.282106939646124</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.236277632870925</v>
+        <v>0.234257580715863</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3323766046188329</v>
+        <v>0.3301081051381982</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>138</v>
@@ -1870,19 +1870,19 @@
         <v>146396</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>121611</v>
+        <v>125312</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>167660</v>
+        <v>169414</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2205479979538731</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1832087211203405</v>
+        <v>0.1887843456706804</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2525829130035904</v>
+        <v>0.2552260575793194</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>263255</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248964</v>
+        <v>249246</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>275675</v>
+        <v>275171</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8497960663334364</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8036633454672377</v>
+        <v>0.8045750384724795</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8898878216652438</v>
+        <v>0.8882614435124856</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>248</v>
@@ -1920,19 +1920,19 @@
         <v>254131</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>236336</v>
+        <v>237139</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>270355</v>
+        <v>271070</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.717893060353876</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6676233953811671</v>
+        <v>0.6698918948618018</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.763722367129075</v>
+        <v>0.765742419284137</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>488</v>
@@ -1941,19 +1941,19 @@
         <v>517386</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>496122</v>
+        <v>494368</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>542171</v>
+        <v>538470</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.779452002046127</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7474170869964094</v>
+        <v>0.7447739424206806</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8167912788796592</v>
+        <v>0.8112156543293194</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>50399</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36365</v>
+        <v>37689</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64578</v>
+        <v>63634</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2017167183798251</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1455457039521974</v>
+        <v>0.1508465227094045</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2584657899169682</v>
+        <v>0.2546868821198059</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>135</v>
@@ -2066,19 +2066,19 @@
         <v>149896</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>132023</v>
+        <v>129271</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>170383</v>
+        <v>170184</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3853575671788895</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.339409860919016</v>
+        <v>0.3323338751671349</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4380273356071307</v>
+        <v>0.4375159054430682</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>181</v>
@@ -2087,19 +2087,19 @@
         <v>200295</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>177672</v>
+        <v>176456</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>224891</v>
+        <v>224986</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3135343380015347</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.278121054150988</v>
+        <v>0.2762170459982903</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3520356433011179</v>
+        <v>0.3521839769363594</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>199452</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>185273</v>
+        <v>186217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>213486</v>
+        <v>212162</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7982832816201749</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7415342100830318</v>
+        <v>0.7453131178801942</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8544542960478025</v>
+        <v>0.8491534772905956</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>215</v>
@@ -2137,19 +2137,19 @@
         <v>239083</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>218596</v>
+        <v>218795</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>256956</v>
+        <v>259708</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6146424328211105</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5619726643928693</v>
+        <v>0.5624840945569318</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.660590139080984</v>
+        <v>0.6676661248328651</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>391</v>
@@ -2158,19 +2158,19 @@
         <v>438535</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>413939</v>
+        <v>413844</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>461158</v>
+        <v>462374</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6864656619984653</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6479643566988821</v>
+        <v>0.6478160230636406</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.721878945849012</v>
+        <v>0.7237829540017097</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>228270</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>201715</v>
+        <v>199453</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>259194</v>
+        <v>258846</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06661358250945129</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05886419902711722</v>
+        <v>0.05820421111470865</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07563779031655364</v>
+        <v>0.07553627819715771</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>536</v>
@@ -2283,19 +2283,19 @@
         <v>580234</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>536139</v>
+        <v>538844</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>625414</v>
+        <v>625041</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1630644134729959</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1506723377128215</v>
+        <v>0.1514326321269351</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1757615556231975</v>
+        <v>0.1756567128164644</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>748</v>
@@ -2304,19 +2304,19 @@
         <v>808504</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>749772</v>
+        <v>749628</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>860427</v>
+        <v>857570</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1157470896223154</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1073389647459468</v>
+        <v>0.1073182729257103</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1231805104111187</v>
+        <v>0.1227714926479408</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>3198509</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3167585</v>
+        <v>3167933</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3225064</v>
+        <v>3227326</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9333864174905487</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9243622096834463</v>
+        <v>0.9244637218028422</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9411358009728827</v>
+        <v>0.9417957888852914</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2762</v>
@@ -2354,19 +2354,19 @@
         <v>2978075</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2932895</v>
+        <v>2933268</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3022170</v>
+        <v>3019465</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8369355865270041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8242384443768026</v>
+        <v>0.8243432871835357</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8493276622871785</v>
+        <v>0.848567367873065</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5759</v>
@@ -2375,19 +2375,19 @@
         <v>6176584</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6124661</v>
+        <v>6127518</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6235316</v>
+        <v>6235460</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8842529103776846</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8768194895888815</v>
+        <v>0.8772285073520593</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8926610352540534</v>
+        <v>0.8926817270742896</v>
       </c>
     </row>
     <row r="27">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6999</v>
+        <v>6996</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004744595224301222</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01668589997564309</v>
+        <v>0.01667771374840175</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2743,19 +2743,19 @@
         <v>13542</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7563</v>
+        <v>7551</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21581</v>
+        <v>21487</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03421885291730389</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01910992095438137</v>
+        <v>0.01907937503312207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05453056871301026</v>
+        <v>0.05429252547245614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -2764,19 +2764,19 @@
         <v>15532</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8861</v>
+        <v>8824</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24049</v>
+        <v>24039</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01905314204187154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01086926485550305</v>
+        <v>0.01082383125325429</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02949986274273715</v>
+        <v>0.0294876303361789</v>
       </c>
     </row>
     <row r="5">
@@ -2793,7 +2793,7 @@
         <v>417473</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412464</v>
+        <v>412467</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -2802,7 +2802,7 @@
         <v>0.9952554047756987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9833141000243568</v>
+        <v>0.983322286251598</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2814,19 +2814,19 @@
         <v>382213</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>374174</v>
+        <v>374268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>388192</v>
+        <v>388204</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9657811470826961</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9454694312869897</v>
+        <v>0.9457074745275438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9808900790456186</v>
+        <v>0.9809206249668777</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>781</v>
@@ -2835,19 +2835,19 @@
         <v>799686</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>791169</v>
+        <v>791179</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>806357</v>
+        <v>806394</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9809468579581284</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9705001372572629</v>
+        <v>0.9705123696638206</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9891307351444969</v>
+        <v>0.9891761687467456</v>
       </c>
     </row>
     <row r="6">
@@ -2939,19 +2939,19 @@
         <v>17858</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10132</v>
+        <v>10765</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29149</v>
+        <v>28240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03024153524111556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0171579904924423</v>
+        <v>0.01823105651781164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04936343699206409</v>
+        <v>0.047824043206188</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -2960,19 +2960,19 @@
         <v>37334</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27310</v>
+        <v>27094</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50402</v>
+        <v>50752</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06624831612331858</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04846076290184145</v>
+        <v>0.04807706392821678</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08943755419892289</v>
+        <v>0.09005869930253398</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -2981,19 +2981,19 @@
         <v>55191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42211</v>
+        <v>42041</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71050</v>
+        <v>70102</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04782445688255454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03657638239406034</v>
+        <v>0.03642914486325942</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06156639445648387</v>
+        <v>0.06074455641363432</v>
       </c>
     </row>
     <row r="8">
@@ -3010,19 +3010,19 @@
         <v>572638</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>561347</v>
+        <v>562256</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>580364</v>
+        <v>579731</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9697584647588844</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9506365630079356</v>
+        <v>0.9521759567938118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9828420095075577</v>
+        <v>0.9817689434821882</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>541</v>
@@ -3031,19 +3031,19 @@
         <v>526210</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>513142</v>
+        <v>512792</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>536234</v>
+        <v>536450</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9337516838766814</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9105624458010769</v>
+        <v>0.9099413006974675</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9515392370981586</v>
+        <v>0.9519229360717834</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1093</v>
@@ -3052,19 +3052,19 @@
         <v>1098849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1082990</v>
+        <v>1083938</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1111829</v>
+        <v>1111999</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9521755431174455</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9384336055435163</v>
+        <v>0.9392554435863657</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9634236176059398</v>
+        <v>0.9635708551367407</v>
       </c>
     </row>
     <row r="9">
@@ -3156,19 +3156,19 @@
         <v>25487</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16139</v>
+        <v>16351</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37682</v>
+        <v>37069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03809096055114417</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02412101221538017</v>
+        <v>0.02443739119436577</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05631712281164248</v>
+        <v>0.05540111664090307</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -3177,19 +3177,19 @@
         <v>58964</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46571</v>
+        <v>45406</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74809</v>
+        <v>73698</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08915149122144887</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07041358315999036</v>
+        <v>0.06865259453679927</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1131091692530435</v>
+        <v>0.1114300927023691</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -3198,19 +3198,19 @@
         <v>84450</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68990</v>
+        <v>67847</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106790</v>
+        <v>103309</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06347327296641367</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05185349840379669</v>
+        <v>0.05099459333889154</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08026408312472977</v>
+        <v>0.07764810300428217</v>
       </c>
     </row>
     <row r="11">
@@ -3227,19 +3227,19 @@
         <v>643610</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>631415</v>
+        <v>632028</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>652958</v>
+        <v>652746</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9619090394488559</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9436828771883574</v>
+        <v>0.944598883359097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9758789877846196</v>
+        <v>0.9755626088056343</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>606</v>
@@ -3248,19 +3248,19 @@
         <v>602422</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>586577</v>
+        <v>587688</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>614815</v>
+        <v>615980</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9108485087785512</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8868908307469565</v>
+        <v>0.8885699072976309</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9295864168400096</v>
+        <v>0.9313474054632009</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1221</v>
@@ -3269,19 +3269,19 @@
         <v>1246033</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1223693</v>
+        <v>1227174</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1261493</v>
+        <v>1262636</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9365267270335863</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9197359168752701</v>
+        <v>0.9223518969957181</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9481465015962028</v>
+        <v>0.9490054066611087</v>
       </c>
     </row>
     <row r="12">
@@ -3373,19 +3373,19 @@
         <v>41756</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29586</v>
+        <v>29792</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57505</v>
+        <v>56138</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06463285094764727</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04579571103327681</v>
+        <v>0.04611445540448399</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08901077916216635</v>
+        <v>0.08689393050898321</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -3394,19 +3394,19 @@
         <v>83622</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65721</v>
+        <v>67262</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101873</v>
+        <v>102359</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1288315784047451</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1012527410113801</v>
+        <v>0.1036273253463809</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1569502584276317</v>
+        <v>0.1576989795733464</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>115</v>
@@ -3415,19 +3415,19 @@
         <v>125378</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105335</v>
+        <v>104456</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>148267</v>
+        <v>149184</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09680727880214678</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0813318396045198</v>
+        <v>0.08065345074344099</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1144807590000086</v>
+        <v>0.1151890554878255</v>
       </c>
     </row>
     <row r="14">
@@ -3444,19 +3444,19 @@
         <v>604292</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>588543</v>
+        <v>589910</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>616462</v>
+        <v>616256</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9353671490523527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9109892208378335</v>
+        <v>0.9131060694910168</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9542042889667232</v>
+        <v>0.9538855445955159</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>525</v>
@@ -3465,19 +3465,19 @@
         <v>565455</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>547204</v>
+        <v>546718</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>583356</v>
+        <v>581815</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8711684215952549</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8430497415723682</v>
+        <v>0.8423010204266531</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.89874725898862</v>
+        <v>0.896372674653619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1069</v>
@@ -3486,19 +3486,19 @@
         <v>1169747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1146858</v>
+        <v>1145941</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1189790</v>
+        <v>1190669</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9031927211978532</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8855192409999915</v>
+        <v>0.8848109445121748</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9186681603954802</v>
+        <v>0.9193465492565591</v>
       </c>
     </row>
     <row r="15">
@@ -3590,19 +3590,19 @@
         <v>58172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44211</v>
+        <v>44309</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75209</v>
+        <v>73823</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1217194005564521</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09250838480626994</v>
+        <v>0.09271337640028722</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1573682563192756</v>
+        <v>0.154468219640067</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -3611,19 +3611,19 @@
         <v>88759</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71783</v>
+        <v>72049</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108448</v>
+        <v>108937</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1786440894436811</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1444763866418813</v>
+        <v>0.1450123257580045</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2182718628353088</v>
+        <v>0.2192555117664305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -3632,19 +3632,19 @@
         <v>146931</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>125338</v>
+        <v>124104</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>173496</v>
+        <v>169858</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.150734513739376</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.128582756985119</v>
+        <v>0.1273169422700604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.177987224842223</v>
+        <v>0.1742545312011948</v>
       </c>
     </row>
     <row r="17">
@@ -3661,19 +3661,19 @@
         <v>419746</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>402709</v>
+        <v>404095</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>433707</v>
+        <v>433609</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.878280599443548</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8426317436807242</v>
+        <v>0.8455317803599328</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.90749161519373</v>
+        <v>0.9072866235997122</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>355</v>
@@ -3682,19 +3682,19 @@
         <v>408090</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>388401</v>
+        <v>387912</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>425066</v>
+        <v>424800</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.821355910556319</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7817281371646914</v>
+        <v>0.7807444882335696</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8555236133581188</v>
+        <v>0.8549876742419954</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>729</v>
@@ -3703,19 +3703,19 @@
         <v>827836</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>801271</v>
+        <v>804909</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>849429</v>
+        <v>850663</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8492654862606239</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8220127751577768</v>
+        <v>0.8257454687988051</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8714172430148808</v>
+        <v>0.8726830577299396</v>
       </c>
     </row>
     <row r="18">
@@ -3807,19 +3807,19 @@
         <v>32023</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21367</v>
+        <v>22085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43187</v>
+        <v>44831</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09578362812338988</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06390908474988205</v>
+        <v>0.0660578860612568</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1291738796007361</v>
+        <v>0.1340925853895109</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -3828,19 +3828,19 @@
         <v>65255</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50827</v>
+        <v>52404</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80696</v>
+        <v>81589</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1727401129425245</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1345472624444836</v>
+        <v>0.1387222951053628</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2136148642558852</v>
+        <v>0.2159786792998617</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -3849,19 +3849,19 @@
         <v>97278</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79940</v>
+        <v>80889</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116005</v>
+        <v>116850</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1366087402594938</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1122602381550358</v>
+        <v>0.113593495160705</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.162907727019541</v>
+        <v>0.1640940273357691</v>
       </c>
     </row>
     <row r="20">
@@ -3878,19 +3878,19 @@
         <v>302307</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>291143</v>
+        <v>289499</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>312963</v>
+        <v>312245</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9042163718766101</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8708261203992638</v>
+        <v>0.865907414610489</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9360909152501179</v>
+        <v>0.9339421139387432</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>291</v>
@@ -3899,19 +3899,19 @@
         <v>312507</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>297066</v>
+        <v>296173</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>326935</v>
+        <v>325358</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8272598870574754</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7863851357441149</v>
+        <v>0.7840213207001384</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8654527375555165</v>
+        <v>0.8612777048946374</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>586</v>
@@ -3920,19 +3920,19 @@
         <v>614814</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>596087</v>
+        <v>595242</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>632152</v>
+        <v>631203</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8633912597405062</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.837092272980459</v>
+        <v>0.8359059726642309</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8877397618449644</v>
+        <v>0.8864065048392951</v>
       </c>
     </row>
     <row r="21">
@@ -4024,19 +4024,19 @@
         <v>50741</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40573</v>
+        <v>38892</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65197</v>
+        <v>62999</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1974363792057261</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1578718725381331</v>
+        <v>0.1513317892861994</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.253687611187514</v>
+        <v>0.2451346344420501</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>87</v>
@@ -4045,19 +4045,19 @@
         <v>115029</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>96694</v>
+        <v>94789</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>136827</v>
+        <v>134548</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2874505032771559</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2416336980814377</v>
+        <v>0.2368732082969935</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3419224940197154</v>
+        <v>0.3362281195875624</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>146</v>
@@ -4066,19 +4066,19 @@
         <v>165770</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>142052</v>
+        <v>143171</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>189386</v>
+        <v>190659</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2522487205696747</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.216157391038747</v>
+        <v>0.2178610539649925</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2881856077614558</v>
+        <v>0.2901221653508467</v>
       </c>
     </row>
     <row r="23">
@@ -4095,19 +4095,19 @@
         <v>206257</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>191801</v>
+        <v>193999</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>216425</v>
+        <v>218106</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8025636207942739</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.746312388812486</v>
+        <v>0.7548653655579498</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8421281274618668</v>
+        <v>0.8486682107138006</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>214</v>
@@ -4116,19 +4116,19 @@
         <v>285140</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>263342</v>
+        <v>265621</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>303475</v>
+        <v>305380</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7125494967228441</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6580775059802845</v>
+        <v>0.6637718804124375</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7583663019185622</v>
+        <v>0.7631267917030065</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>457</v>
@@ -4137,19 +4137,19 @@
         <v>491397</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>467781</v>
+        <v>466508</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>515115</v>
+        <v>513996</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7477512794303253</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7118143922385441</v>
+        <v>0.7098778346491533</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7838426089612529</v>
+        <v>0.7821389460350077</v>
       </c>
     </row>
     <row r="24">
@@ -4241,19 +4241,19 @@
         <v>228026</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>200957</v>
+        <v>198061</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>258272</v>
+        <v>259806</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06717814695155318</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05920348655569497</v>
+        <v>0.0583502555889354</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07608892194863291</v>
+        <v>0.07654085190246197</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>416</v>
@@ -4262,19 +4262,19 @@
         <v>462504</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>419159</v>
+        <v>422255</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>501740</v>
+        <v>505256</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1304833906028542</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1182547476009358</v>
+        <v>0.1191281939959602</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1415528757413859</v>
+        <v>0.1425448884298514</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>633</v>
@@ -4283,19 +4283,19 @@
         <v>690530</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>641009</v>
+        <v>635683</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>742323</v>
+        <v>740039</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09951588672539331</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09237912693623766</v>
+        <v>0.09161158618356394</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1069800333982346</v>
+        <v>0.1066509541043104</v>
       </c>
     </row>
     <row r="26">
@@ -4312,19 +4312,19 @@
         <v>3166324</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3136078</v>
+        <v>3134544</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3193393</v>
+        <v>3196289</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9328218530484468</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.923911078051367</v>
+        <v>0.923459148097538</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.940796513444305</v>
+        <v>0.9416497444110645</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2922</v>
@@ -4333,19 +4333,19 @@
         <v>3082038</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3042802</v>
+        <v>3039286</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3125383</v>
+        <v>3122287</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8695166093971458</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8584471242586141</v>
+        <v>0.8574551115701486</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8817452523990644</v>
+        <v>0.8808718060040397</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5936</v>
@@ -4354,19 +4354,19 @@
         <v>6248362</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6196569</v>
+        <v>6198853</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6297883</v>
+        <v>6303209</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9004841132746066</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8930199666017654</v>
+        <v>0.8933490458956896</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9076208730637624</v>
+        <v>0.9083884138164361</v>
       </c>
     </row>
     <row r="27">
@@ -4701,19 +4701,19 @@
         <v>6928</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1479</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19101</v>
+        <v>18970</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01698834285645207</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003626374487699827</v>
+        <v>0.003677265051698074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04683927298733429</v>
+        <v>0.04651813071664412</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -4722,19 +4722,19 @@
         <v>60871</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44134</v>
+        <v>41448</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83202</v>
+        <v>86225</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1679157698378613</v>
+        <v>0.1679157698378612</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.121745600501345</v>
+        <v>0.114336620682607</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2295155971109241</v>
+        <v>0.2378541781465901</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -4743,19 +4743,19 @@
         <v>67799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47807</v>
+        <v>47257</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92413</v>
+        <v>95333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08801604871219366</v>
+        <v>0.08801604871219365</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06206302615777042</v>
+        <v>0.0613481189368594</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1199697924709453</v>
+        <v>0.1237605868143049</v>
       </c>
     </row>
     <row r="5">
@@ -4772,19 +4772,19 @@
         <v>400865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>388692</v>
+        <v>388823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406314</v>
+        <v>406293</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9830116571435481</v>
+        <v>0.983011657143548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9531607270126657</v>
+        <v>0.9534818692833564</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9963736255123002</v>
+        <v>0.996322734948302</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -4793,19 +4793,19 @@
         <v>301641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279310</v>
+        <v>276287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>318378</v>
+        <v>321064</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8320842301621386</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7704844028890759</v>
+        <v>0.7621458218534101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8782543994986551</v>
+        <v>0.885663379317393</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -4814,19 +4814,19 @@
         <v>702506</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>677892</v>
+        <v>674972</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>722498</v>
+        <v>723048</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9119839512878065</v>
+        <v>0.9119839512878064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8800302075290545</v>
+        <v>0.8762394131856951</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9379369738422296</v>
+        <v>0.9386518810631408</v>
       </c>
     </row>
     <row r="6">
@@ -4918,19 +4918,19 @@
         <v>23681</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13521</v>
+        <v>12827</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38187</v>
+        <v>38077</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04965668815770181</v>
+        <v>0.04965668815770183</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02835336892626878</v>
+        <v>0.02689809007723708</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08007548703057268</v>
+        <v>0.07984379172631538</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -4939,19 +4939,19 @@
         <v>69185</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54507</v>
+        <v>54911</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86600</v>
+        <v>86225</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.137893053507883</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1086367882302866</v>
+        <v>0.1094433410878913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1726026831753783</v>
+        <v>0.1718546872737764</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>77</v>
@@ -4960,19 +4960,19 @@
         <v>92866</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>74843</v>
+        <v>73194</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115615</v>
+        <v>112657</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09489481096161928</v>
+        <v>0.09489481096161929</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07647829027064328</v>
+        <v>0.07479242973308252</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1181402970427923</v>
+        <v>0.1151175241483563</v>
       </c>
     </row>
     <row r="8">
@@ -4989,19 +4989,19 @@
         <v>453209</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>438703</v>
+        <v>438813</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>463369</v>
+        <v>464063</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9503433118422981</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9199245129694273</v>
+        <v>0.9201562082736848</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9716466310737313</v>
+        <v>0.9731019099227629</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>400</v>
@@ -5010,19 +5010,19 @@
         <v>432548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>415133</v>
+        <v>415508</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>447226</v>
+        <v>446822</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8621069464921168</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8273973168246221</v>
+        <v>0.8281453127262235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8913632117697134</v>
+        <v>0.8905566589121087</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>686</v>
@@ -5031,19 +5031,19 @@
         <v>885757</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>863008</v>
+        <v>865966</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>903780</v>
+        <v>905429</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9051051890383806</v>
+        <v>0.9051051890383807</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8818597029572076</v>
+        <v>0.8848824758516438</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9235217097293565</v>
+        <v>0.9252075702669175</v>
       </c>
     </row>
     <row r="9">
@@ -5135,19 +5135,19 @@
         <v>43275</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31594</v>
+        <v>31569</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58556</v>
+        <v>60650</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06970490359707072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05088927975180457</v>
+        <v>0.05084946908861487</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09431781435792362</v>
+        <v>0.0976900133570994</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>150</v>
@@ -5156,19 +5156,19 @@
         <v>110551</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94349</v>
+        <v>94244</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126152</v>
+        <v>125998</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1773950739600632</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1513962775282443</v>
+        <v>0.1512269831741908</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2024277381201493</v>
+        <v>0.202180922352331</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>188</v>
@@ -5177,19 +5177,19 @@
         <v>153827</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134202</v>
+        <v>134933</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173943</v>
+        <v>176574</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1236519546517802</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1078770367440741</v>
+        <v>0.1084642458265894</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.139822060681681</v>
+        <v>0.1419373981201793</v>
       </c>
     </row>
     <row r="11">
@@ -5206,19 +5206,19 @@
         <v>577562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>562281</v>
+        <v>560187</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>589243</v>
+        <v>589268</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9302950964029293</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9056821856420763</v>
+        <v>0.902309986642901</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9491107202481955</v>
+        <v>0.949150530911385</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>698</v>
@@ -5227,19 +5227,19 @@
         <v>512642</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>497041</v>
+        <v>497195</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>528844</v>
+        <v>528949</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8226049260399367</v>
+        <v>0.822604926039937</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7975722618798506</v>
+        <v>0.7978190776476694</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8486037224717559</v>
+        <v>0.8487730168258095</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1206</v>
@@ -5248,19 +5248,19 @@
         <v>1090202</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1070086</v>
+        <v>1067455</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1109827</v>
+        <v>1109096</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8763480453482199</v>
+        <v>0.8763480453482196</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8601779393183192</v>
+        <v>0.8580626018798204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.892122963255926</v>
+        <v>0.8915357541734102</v>
       </c>
     </row>
     <row r="12">
@@ -5352,19 +5352,19 @@
         <v>95227</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78925</v>
+        <v>76779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114921</v>
+        <v>115367</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.13591809882161</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.112651282835083</v>
+        <v>0.1095875073443753</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1640284773591165</v>
+        <v>0.1646642767705347</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>281</v>
@@ -5373,19 +5373,19 @@
         <v>181708</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>164159</v>
+        <v>163122</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201245</v>
+        <v>199100</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2465891117739131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2227738972341117</v>
+        <v>0.2213672813937267</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2731022054158412</v>
+        <v>0.2701912395265404</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>371</v>
@@ -5394,19 +5394,19 @@
         <v>276935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>253924</v>
+        <v>249661</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>304420</v>
+        <v>303689</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.192649758680229</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.176642113005179</v>
+        <v>0.1736765416501208</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2117696171635662</v>
+        <v>0.2112614461074027</v>
       </c>
     </row>
     <row r="14">
@@ -5423,19 +5423,19 @@
         <v>605390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>585696</v>
+        <v>585250</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>621692</v>
+        <v>623838</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.86408190117839</v>
+        <v>0.8640819011783899</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8359715226408837</v>
+        <v>0.8353357232294653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8873487171649171</v>
+        <v>0.8904124926556246</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>860</v>
@@ -5444,19 +5444,19 @@
         <v>555178</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>535641</v>
+        <v>537786</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>572727</v>
+        <v>573764</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7534108882260868</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7268977945841587</v>
+        <v>0.7298087604734597</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7772261027658884</v>
+        <v>0.7786327186062733</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1435</v>
@@ -5465,19 +5465,19 @@
         <v>1160569</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1133084</v>
+        <v>1133815</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1183580</v>
+        <v>1187843</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8073502413197708</v>
+        <v>0.807350241319771</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7882303828364339</v>
+        <v>0.7887385538925972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8233578869948209</v>
+        <v>0.8263234583498791</v>
       </c>
     </row>
     <row r="15">
@@ -5569,19 +5569,19 @@
         <v>118949</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>100694</v>
+        <v>102559</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>137425</v>
+        <v>137393</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1952076002454393</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1652491347609074</v>
+        <v>0.1683093504043708</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2255289678359914</v>
+        <v>0.2254769817393546</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>309</v>
@@ -5590,19 +5590,19 @@
         <v>191528</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>174435</v>
+        <v>173506</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>210458</v>
+        <v>208120</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3145707958993115</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2864966244585747</v>
+        <v>0.284970158577571</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3456614095670262</v>
+        <v>0.3418225105675345</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>439</v>
@@ -5611,19 +5611,19 @@
         <v>310477</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>284467</v>
+        <v>284492</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>336101</v>
+        <v>339108</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2548651410909488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2335137411591111</v>
+        <v>0.2335346364926482</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2758995491996992</v>
+        <v>0.2783678376963278</v>
       </c>
     </row>
     <row r="17">
@@ -5640,19 +5640,19 @@
         <v>490397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>471921</v>
+        <v>471953</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508652</v>
+        <v>506787</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8047923997545607</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.774471032164009</v>
+        <v>0.7745230182606455</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8347508652390925</v>
+        <v>0.8316906495956293</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>693</v>
@@ -5661,19 +5661,19 @@
         <v>417327</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>398397</v>
+        <v>400735</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>434420</v>
+        <v>435349</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6854292041006884</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6543385904329738</v>
+        <v>0.6581774894324655</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7135033755414254</v>
+        <v>0.715029841422429</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1226</v>
@@ -5682,19 +5682,19 @@
         <v>907725</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>882101</v>
+        <v>879094</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>933735</v>
+        <v>933710</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7451348589090512</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7241004508003008</v>
+        <v>0.7216321623036722</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7664862588408889</v>
+        <v>0.7664653635073523</v>
       </c>
     </row>
     <row r="18">
@@ -5786,19 +5786,19 @@
         <v>72921</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60691</v>
+        <v>60718</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87056</v>
+        <v>86816</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1791317350604006</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1490897532740712</v>
+        <v>0.1491541979490039</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.213855806728137</v>
+        <v>0.213265094189645</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>266</v>
@@ -5807,19 +5807,19 @@
         <v>147273</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>131964</v>
+        <v>132174</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>161364</v>
+        <v>162302</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3353479452670382</v>
+        <v>0.3353479452670381</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.300488264544602</v>
+        <v>0.3009669159242376</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3674329552298204</v>
+        <v>0.3695678163690863</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>372</v>
@@ -5828,19 +5828,19 @@
         <v>220194</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>201562</v>
+        <v>199738</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>239621</v>
+        <v>240247</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.260201405364801</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2381832391951802</v>
+        <v>0.2360284315593012</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2831571345043065</v>
+        <v>0.2838970379159097</v>
       </c>
     </row>
     <row r="20">
@@ -5857,19 +5857,19 @@
         <v>334159</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>320024</v>
+        <v>320264</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>346389</v>
+        <v>346362</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8208682649395993</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7861441932718631</v>
+        <v>0.7867349058103551</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8509102467259287</v>
+        <v>0.8508458020509961</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>561</v>
@@ -5878,19 +5878,19 @@
         <v>291893</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>277802</v>
+        <v>276864</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>307202</v>
+        <v>306992</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.664652054732962</v>
+        <v>0.6646520547329617</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6325670447701796</v>
+        <v>0.6304321836309138</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.699511735455398</v>
+        <v>0.6990330840757626</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1025</v>
@@ -5899,19 +5899,19 @@
         <v>626052</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>606625</v>
+        <v>605999</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>644684</v>
+        <v>646508</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7397985946351989</v>
+        <v>0.739798594635199</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7168428654956936</v>
+        <v>0.7161029620840902</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7618167608048193</v>
+        <v>0.7639715684406986</v>
       </c>
     </row>
     <row r="21">
@@ -6003,19 +6003,19 @@
         <v>93930</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81361</v>
+        <v>80866</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106399</v>
+        <v>108937</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3028066601901309</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2622864988719226</v>
+        <v>0.2606925244349182</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3430050507595183</v>
+        <v>0.3511843358827964</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>451</v>
@@ -6024,19 +6024,19 @@
         <v>236792</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>222031</v>
+        <v>219655</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>252675</v>
+        <v>251396</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5096589088722223</v>
+        <v>0.5096589088722222</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4778871085703665</v>
+        <v>0.472774632417659</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5438440771441128</v>
+        <v>0.541091364346947</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>592</v>
@@ -6045,19 +6045,19 @@
         <v>330722</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>307349</v>
+        <v>309274</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>350112</v>
+        <v>351853</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.426844477489198</v>
+        <v>0.4268444774891978</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3966780767658331</v>
+        <v>0.3991621594354137</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4518696403892469</v>
+        <v>0.4541167149110001</v>
       </c>
     </row>
     <row r="23">
@@ -6074,19 +6074,19 @@
         <v>216268</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>203799</v>
+        <v>201261</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>228837</v>
+        <v>229332</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6971933398098689</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6569949492404815</v>
+        <v>0.6488156641172041</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7377135011280772</v>
+        <v>0.7393074755650818</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>430</v>
@@ -6095,19 +6095,19 @@
         <v>227817</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>211934</v>
+        <v>213213</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>242578</v>
+        <v>244954</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4903410911277777</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4561559228558872</v>
+        <v>0.4589086356530529</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5221128914296335</v>
+        <v>0.5272253675823404</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>747</v>
@@ -6116,19 +6116,19 @@
         <v>444085</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>424695</v>
+        <v>422954</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>467458</v>
+        <v>465533</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.573155522510802</v>
+        <v>0.5731555225108019</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5481303596107532</v>
+        <v>0.5458832850889997</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6033219232341669</v>
+        <v>0.6008378405645861</v>
       </c>
     </row>
     <row r="24">
@@ -6220,19 +6220,19 @@
         <v>454911</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>418319</v>
+        <v>416148</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>494141</v>
+        <v>493635</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1287690830926663</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1184113524953561</v>
+        <v>0.117796707733312</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1398739045250559</v>
+        <v>0.1397306671235299</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1548</v>
@@ -6241,19 +6241,19 @@
         <v>997910</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>943567</v>
+        <v>950080</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1046623</v>
+        <v>1044336</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2670383486971181</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2524961827463597</v>
+        <v>0.2542391733648293</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2800738435272774</v>
+        <v>0.2794617088889694</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2072</v>
@@ -6262,19 +6262,19 @@
         <v>1452821</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1391935</v>
+        <v>1391491</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1519532</v>
+        <v>1512079</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1998455739564969</v>
+        <v>0.1998455739564968</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1914702871060758</v>
+        <v>0.1914092555334616</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2090221462754771</v>
+        <v>0.2079970453229994</v>
       </c>
     </row>
     <row r="26">
@@ -6291,19 +6291,19 @@
         <v>3077851</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3038621</v>
+        <v>3039127</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3114443</v>
+        <v>3116614</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8712309169073338</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8601260954749442</v>
+        <v>0.8602693328764698</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8815886475046439</v>
+        <v>0.8822032922666879</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3819</v>
@@ -6312,19 +6312,19 @@
         <v>2739044</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2690331</v>
+        <v>2692618</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2793387</v>
+        <v>2786874</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.732961651302882</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7199261564727225</v>
+        <v>0.7205382911110305</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7475038172536403</v>
+        <v>0.7457608266351707</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6671</v>
@@ -6333,19 +6333,19 @@
         <v>5816895</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5750184</v>
+        <v>5757637</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5877781</v>
+        <v>5878225</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8001544260435032</v>
+        <v>0.8001544260435031</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7909778537245227</v>
+        <v>0.7920029546770005</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8085297128939242</v>
+        <v>0.8085907444665382</v>
       </c>
     </row>
     <row r="27">
